--- a/results/CNN_2layers_adaptive_avgpool=3/cm_CNN_2layers_adaptive_avgpool_3_PCC.xlsx
+++ b/results/CNN_2layers_adaptive_avgpool=3/cm_CNN_2layers_adaptive_avgpool_3_PCC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\CNN_2layers_adaptive_avgpool=3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFB6541-BECB-4AB7-AC59-46260C12375B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF2C241-261D-421E-A771-8257D2244D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K-Fold Results" sheetId="1" r:id="rId1"/>
